--- a/Excel_folder/TATA_2.xlsx
+++ b/Excel_folder/TATA_2.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>PARBATI HOLDINGS LTD</t>
+          <t>TATA STEEL LIMITED</t>
         </is>
       </c>
       <c r="C1" s="2" t="n"/>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>129006.62</v>
+        <v>1290066200000</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>129021.35</v>
+        <v>1290213500000</v>
       </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3325.48</v>
+        <v>33254800000</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1452.02</v>
+        <v>14520200000</v>
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>132332.1</v>
+        <v>1323321000000</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>130473.37</v>
+        <v>1304733700000</v>
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>243.92</v>
+        <v>2439200000</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>243.92</v>
+        <v>2439200000</v>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2720.71</v>
+        <v>27207100000</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>943</v>
+        <v>9430000000</v>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>3792.14</v>
+        <v>37921400000</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>2792.08</v>
+        <v>27920800000</v>
       </c>
       <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="n"/>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>6616.29</v>
+        <v>66162900000</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>6365.8</v>
+        <v>63658000000</v>
       </c>
       <c r="D66" s="2" t="n"/>
       <c r="E66" s="2" t="n"/>

--- a/Excel_folder/TATA_2.xlsx
+++ b/Excel_folder/TATA_2.xlsx
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>110531.4</v>
+        <v>1105314000000</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>86147.27</v>
+        <v>861472700000</v>
       </c>
       <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="n"/>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>490.86</v>
+        <v>4908600000</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>515.3</v>
+        <v>5153000000</v>
       </c>
       <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="n"/>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>281.95</v>
+        <v>2819500000</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>169.98</v>
+        <v>1699800000</v>
       </c>
       <c r="D36" s="2" t="n"/>
       <c r="E36" s="2" t="n"/>
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>480.62</v>
+        <v>4806200000</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>405.97</v>
+        <v>4059700000</v>
       </c>
       <c r="D41" s="2" t="n"/>
       <c r="E41" s="2" t="n"/>
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>3351.72</v>
+        <v>33517200000</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>3280.3</v>
+        <v>32803000000</v>
       </c>
       <c r="D75" s="2" t="n"/>
       <c r="E75" s="2" t="n"/>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>72.38</v>
+        <v>723800000</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>17.7</v>
+        <v>177000000</v>
       </c>
       <c r="D76" s="2" t="n"/>
       <c r="E76" s="2" t="n"/>
@@ -1353,8 +1353,12 @@
           <t>Less: Advances from customers/Unearned revenue</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n"/>
-      <c r="C77" s="2" t="n"/>
+      <c r="B77" s="2" t="n">
+        <v>64157800000</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>57411600000</v>
+      </c>
       <c r="D77" s="2" t="n"/>
       <c r="E77" s="2" t="n"/>
     </row>
@@ -1387,10 +1391,10 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>18082.4</v>
+        <v>180824000000</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>21091.14</v>
+        <v>210911400000</v>
       </c>
       <c r="D80" s="2" t="n"/>
       <c r="E80" s="2" t="n"/>
@@ -1412,12 +1416,8 @@
           <t>Less: Advances paid to vendors</t>
         </is>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>72.38</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="B82" s="2" t="n"/>
+      <c r="C82" s="2" t="n"/>
       <c r="D82" s="2" t="n"/>
       <c r="E82" s="2" t="n"/>
     </row>
@@ -1427,12 +1427,8 @@
           <t>Less: Advance recoverable in cash or in kind</t>
         </is>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>72.38</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="2" t="n"/>
       <c r="D83" s="2" t="n"/>
       <c r="E83" s="2" t="n"/>
     </row>

--- a/Excel_folder/TATA_2.xlsx
+++ b/Excel_folder/TATA_2.xlsx
@@ -29,15 +29,21 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,17 +57,37 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,35 +475,11 @@
           <t>Full Name of the company</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>TATA STEEL LIMITED</t>
         </is>
       </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -485,24 +487,19 @@
           <t>A. Company wide Financial Information</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Particulars</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>INR(values in Crores/Lakhs)</t>
@@ -513,8 +510,8 @@
           <t>INR(values in Crores/Lakhs)</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -522,66 +519,52 @@
           <t>Income</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Net Sales</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="7" t="n">
         <v>1290066200000</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="7" t="n">
         <v>1290213500000</v>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Change in stock</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Other Income</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="7" t="n">
         <v>33254800000</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="7" t="n">
         <v>14520200000</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Total Income</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="7" t="n">
         <v>1323321000000</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="7" t="n">
         <v>1304733700000</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -589,157 +572,115 @@
           <t>Less: Reclassification items</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Excise duty (forming part of total cost)</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Sales tax (forming part of total cost)</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-    </row>
+    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Less: non-operating items of income</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Rent received</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Dividend received</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="7" t="n">
         <v>2439200000</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="7" t="n">
         <v>2439200000</v>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Interest received</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="7" t="n">
         <v>27207100000</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="7" t="n">
         <v>9430000000</v>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Write back of diminution in value of investment</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Gain on sale of fixed assets</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Gain on sale of investments</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Grants/Donations received</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Any other item</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
+      <c r="B25" s="7" t="n">
+        <v>3193900000</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>2651000000</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Operating Income</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
+      <c r="B26" s="8" t="n">
+        <v>1290480800000</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1290213500000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -747,25 +688,19 @@
           <t>II. Expenditure</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>Total expenditure</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="7" t="n">
         <v>1105314000000</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="7" t="n">
         <v>861472700000</v>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -773,43 +708,27 @@
           <t>Less: Reclassification items</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Excise duty (forming part of total cost)</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Sales tax (forming part of total cost)</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Change in stock</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -817,180 +736,140 @@
           <t>Less: non-operating expenses</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Interest paid</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="7" t="n">
         <v>37921400000</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="7" t="n">
         <v>27920800000</v>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Less: Interest expense on lease liability (rentals)</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="7" t="n">
         <v>4908600000</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="7" t="n">
         <v>5153000000</v>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>Other Financing charges</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="7" t="n">
         <v>2819500000</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="7" t="n">
         <v>1699800000</v>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Loss on sale of fixed assets</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="2" t="n"/>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Loss on Sale of Investment</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Provision for diminution in the value of investment</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Preliminary Expenses Written Off</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n"/>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Donations / CSR</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="7" t="n">
         <v>4806200000</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="7" t="n">
         <v>4059700000</v>
       </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Loss due to fire/theft/natural calamity/breakdown/strike</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Voluntary Retirement Scheme</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>Any other item</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>Operating Expenses before adjustments</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
+      <c r="B45" s="8" t="n">
+        <v>1064675500000</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>832945400000</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Re-measurement of net defined liability</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n"/>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>Operating Expenses after adjustments</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n"/>
-      <c r="C47" s="2" t="n"/>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
+      <c r="B47" s="8" t="n">
+        <v>1064675500000</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>832945400000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -998,32 +877,32 @@
           <t>III. Profits</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n"/>
-      <c r="C48" s="2" t="n"/>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>Net profits</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n"/>
-      <c r="C49" s="2" t="n"/>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
+      <c r="B49" s="8" t="n">
+        <v>218007000000</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>443261000000</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>Operating profits</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n"/>
-      <c r="C50" s="2" t="n"/>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
+      <c r="B50" s="8" t="n">
+        <v>225805300000</v>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>457268100000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1031,21 +910,19 @@
           <t>IV. Profit Level Indicator</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n"/>
-      <c r="C51" s="2" t="n"/>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>Operating Profits/Operating Expenses (using foreign exchange fluctuation as operating)</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n"/>
-      <c r="C52" s="2" t="n"/>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="n"/>
+      <c r="B52" s="8" t="n">
+        <v>21.20883781020602</v>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>54.89772799033405</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1053,10 +930,6 @@
           <t>Filter computation</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n"/>
-      <c r="C53" s="2" t="n"/>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1064,120 +937,82 @@
           <t>1. RPT Filter</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n"/>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>Nature of transaction</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n"/>
-      <c r="C55" s="2" t="n"/>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>Purchase of goods</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>Sale of goods</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n"/>
-      <c r="C57" s="2" t="n"/>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>Provision of services</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n"/>
-      <c r="C58" s="2" t="n"/>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>Receipt of services</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n"/>
-      <c r="C59" s="2" t="n"/>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>Payment / receipt of royalty</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n"/>
-      <c r="C60" s="2" t="n"/>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>Other Expenses</t>
         </is>
       </c>
-      <c r="B61" s="2" t="n"/>
-      <c r="C61" s="2" t="n"/>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>Other Incomes</t>
         </is>
       </c>
-      <c r="B62" s="2" t="n"/>
-      <c r="C62" s="2" t="n"/>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>Value of transactions with related parties</t>
         </is>
       </c>
-      <c r="B63" s="2" t="n"/>
-      <c r="C63" s="2" t="n"/>
-      <c r="D63" s="2" t="n"/>
-      <c r="E63" s="2" t="n"/>
+      <c r="B63" s="8" t="n">
+        <v>21.20883781020602</v>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>54.89772799033405</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>% of transactions with related parties</t>
         </is>
       </c>
-      <c r="B64" s="2" t="n"/>
-      <c r="C64" s="2" t="n"/>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1185,36 +1020,26 @@
           <t>2. Employee cost filter</t>
         </is>
       </c>
-      <c r="B65" s="2" t="n"/>
-      <c r="C65" s="2" t="n"/>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="5" t="inlineStr">
         <is>
           <t>Employee benefit expense</t>
         </is>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="7" t="n">
         <v>66162900000</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="7" t="n">
         <v>63658000000</v>
       </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>Employee benefit expense as a % of total expenses</t>
         </is>
       </c>
-      <c r="B67" s="2" t="n"/>
-      <c r="C67" s="2" t="n"/>
-      <c r="D67" s="2" t="n"/>
-      <c r="E67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1222,39 +1047,20 @@
           <t>3. Export revenue filter</t>
         </is>
       </c>
-      <c r="B68" s="2" t="n"/>
-      <c r="C68" s="2" t="n"/>
-      <c r="D68" s="2" t="n"/>
-      <c r="E68" s="2" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>Export revenue / Revenue earned in Foreign exchange</t>
         </is>
       </c>
-      <c r="B69" s="2" t="n"/>
-      <c r="C69" s="2" t="n"/>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>Export revenue as a % of total revenue</t>
         </is>
       </c>
-      <c r="B70" s="2" t="n"/>
-      <c r="C70" s="2" t="n"/>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
-      <c r="C71" s="2" t="n"/>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1262,10 +1068,6 @@
           <t>B. Information for working capital adjustment</t>
         </is>
       </c>
-      <c r="B72" s="2" t="n"/>
-      <c r="C72" s="2" t="n"/>
-      <c r="D72" s="2" t="n"/>
-      <c r="E72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1295,7 +1097,6 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
           <t>INR</t>
@@ -1318,185 +1119,157 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" s="5" t="inlineStr">
         <is>
           <t>Sundry Debtors/Bills receivable</t>
         </is>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="7" t="n">
         <v>33517200000</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="7" t="n">
         <v>32803000000</v>
       </c>
-      <c r="D75" s="2" t="n"/>
-      <c r="E75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" s="5" t="inlineStr">
         <is>
           <t>Unbilled Revenue</t>
         </is>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="7" t="n">
         <v>723800000</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="7" t="n">
         <v>177000000</v>
       </c>
-      <c r="D76" s="2" t="n"/>
-      <c r="E76" s="2" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" s="5" t="inlineStr">
         <is>
           <t>Less: Advances from customers/Unearned revenue</t>
         </is>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="7" t="n">
         <v>64157800000</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="7" t="n">
         <v>57411600000</v>
       </c>
-      <c r="D77" s="2" t="n"/>
-      <c r="E77" s="2" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>Less: Advance Revenue/Prepaid revenue</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n"/>
-      <c r="C78" s="2" t="n"/>
-      <c r="D78" s="2" t="n"/>
-      <c r="E78" s="2" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" s="5" t="inlineStr">
         <is>
           <t>Accounts receivable</t>
         </is>
       </c>
-      <c r="B79" s="2" t="n"/>
-      <c r="C79" s="2" t="n"/>
-      <c r="D79" s="2" t="n"/>
-      <c r="E79" s="2" t="n"/>
+      <c r="B79" s="8" t="n">
+        <v>-29916800000</v>
+      </c>
+      <c r="C79" s="8" t="n">
+        <v>-24431600000</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t>Sundry Creditors/Bills Payable</t>
         </is>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="7" t="n">
         <v>180824000000</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="7" t="n">
         <v>210911400000</v>
       </c>
-      <c r="D80" s="2" t="n"/>
-      <c r="E80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="A81" s="5" t="inlineStr">
         <is>
           <t>Less: Prepaid Expenses</t>
         </is>
       </c>
-      <c r="B81" s="2" t="n"/>
-      <c r="C81" s="2" t="n"/>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" s="5" t="inlineStr">
         <is>
           <t>Less: Advances paid to vendors</t>
         </is>
       </c>
-      <c r="B82" s="2" t="n"/>
-      <c r="C82" s="2" t="n"/>
-      <c r="D82" s="2" t="n"/>
-      <c r="E82" s="2" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>Less: Advance recoverable in cash or in kind</t>
         </is>
       </c>
-      <c r="B83" s="2" t="n"/>
-      <c r="C83" s="2" t="n"/>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="2" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>Accounts payable</t>
         </is>
       </c>
-      <c r="B84" s="2" t="n"/>
-      <c r="C84" s="2" t="n"/>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
+      <c r="B84" s="8" t="n">
+        <v>180824000000</v>
+      </c>
+      <c r="C84" s="8" t="n">
+        <v>210911400000</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" s="5" t="inlineStr">
         <is>
           <t>Raw Material and Components</t>
         </is>
       </c>
-      <c r="B85" s="2" t="n"/>
-      <c r="C85" s="2" t="n"/>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="2" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="5" t="inlineStr">
         <is>
           <t>Work in Progress</t>
         </is>
       </c>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="2" t="n"/>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="2" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="5" t="inlineStr">
         <is>
           <t>Finished Goods</t>
         </is>
       </c>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="n"/>
-      <c r="D87" s="2" t="n"/>
-      <c r="E87" s="2" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" s="5" t="inlineStr">
         <is>
           <t>Inventory</t>
         </is>
       </c>
-      <c r="B88" s="2" t="n"/>
-      <c r="C88" s="2" t="n"/>
-      <c r="D88" s="2" t="n"/>
-      <c r="E88" s="2" t="n"/>
+      <c r="B88" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="5" t="inlineStr">
         <is>
           <t>Net working capital</t>
         </is>
       </c>
-      <c r="B89" s="2" t="n"/>
-      <c r="C89" s="2" t="n"/>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
+      <c r="B89" s="8" t="n">
+        <v>-210740800000</v>
+      </c>
+      <c r="C89" s="8" t="n">
+        <v>-235343000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
